--- a/biology/Médecine/Pierre_Derocque/Pierre_Derocque.xlsx
+++ b/biology/Médecine/Pierre_Derocque/Pierre_Derocque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Derocque (20 février 1872 à Rouen - 7 janvier 1934 à Saint-Martin-de-Boscherville) est un chirurgien français.
 </t>
@@ -511,7 +523,9 @@
           <t>Sa famille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Derocque sont une vieille famille normande où la carrière médicale est traditionnelle. Son fils André Derocque sera également chirurgien et militaire français qui a participé aux deux guerres mondiales..
 </t>
@@ -542,7 +556,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Derocque naît le 20 février 1872, au no 27 rue Saint-Patrice à Rouen, d'Émile Adolphe Derocque, docteur en médecine et de Marie Alexandrine Billard.
 Derocque est élève au lycée Corneille de Rouen. Il commence à étudier la médecine à Rouen en 1899. Il devient en janvier 1892 externe des Hôpitaux de Paris. Interne de 1893 à 1897, il présente sa thèse de doctorat sur l'entérectomie en 1897 puis rentre à Rouen.
@@ -553,7 +569,7 @@
 Médecin chef d'ambulance de front pendant la Première Guerre mondiale, il est décoré de la Légion d'honneur et de la croix de guerre.
 Il se marie une seconde fois le 7 mars 1925 à Paris avec Joséphine Haudebout.
 Il vit au no 17 quai du Havre (1898), au no 3 place de la Pucelle (1911-1932), puis au no 26 rue de Crosne.
-Il meurt en 1934 dans un accident automobile dans la forêt de Roumare. Après sa mort, sa bibliothèque notamment de livres anciens sur la médecine est vendue aux enchères à l'hôtel des ventes de Rouen le 14 juin 1934[1].
+Il meurt en 1934 dans un accident automobile dans la forêt de Roumare. Après sa mort, sa bibliothèque notamment de livres anciens sur la médecine est vendue aux enchères à l'hôtel des ventes de Rouen le 14 juin 1934.
 </t>
         </is>
       </c>
@@ -582,9 +598,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur (29 décembre 1916)[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur (29 décembre 1916).
  Croix de guerre 1914-1918.</t>
         </is>
       </c>
